--- a/Assignment_01/01_03/Results_1-3.xlsx
+++ b/Assignment_01/01_03/Results_1-3.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixwaldschock/Documents/gits/Chalmers_TME286_IntelligentAgents/Assignment_01/01_03/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF66E64-1D23-7744-B1D8-A6DB4B784512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30665A21-137A-944F-911A-6910D0B8E8A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1240" windowWidth="27640" windowHeight="16560" xr2:uid="{326D5E39-B4D2-2948-9B49-F7ED17ACAA42}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Restaurant
 review</t>
@@ -86,19 +86,25 @@
 positive</t>
   </si>
   <si>
-    <t>Ration</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bag of Words Count for Airline </t>
   </si>
   <si>
     <t>Bag of Words Count for Restaurant</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -128,11 +134,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,15 +457,19 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,13 +483,16 @@
         <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -500,7 +514,7 @@
       <c r="H2">
         <v>1.2400000000000001E-4</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <f>G2/H2</f>
         <v>6.57258064516129</v>
       </c>
@@ -510,7 +524,7 @@
       <c r="K2">
         <v>7.8999999999999996E-5</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="2">
         <f>J2/K2</f>
         <v>5.4303797468354436</v>
       </c>
@@ -534,8 +548,8 @@
       <c r="H3">
         <v>1.2400000000000001E-4</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I5" si="0">G3/H3</f>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3" si="0">G3/H3</f>
         <v>6.57258064516129</v>
       </c>
       <c r="J3">
@@ -544,7 +558,7 @@
       <c r="K3">
         <v>1.8E-5</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="2">
         <f t="shared" ref="L3" si="1">J3/K3</f>
         <v>28.555555555555557</v>
       </c>
@@ -568,7 +582,7 @@
       <c r="H4">
         <v>2.977E-3</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <f>H4/G4</f>
         <v>6.3884120171673819</v>
       </c>
@@ -578,7 +592,7 @@
       <c r="K4">
         <v>2.5500000000000002E-3</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="2">
         <f>K4/J4</f>
         <v>21.794871794871796</v>
       </c>
@@ -602,7 +616,7 @@
       <c r="H5">
         <v>4.9600000000000002E-4</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <f>H5/G5</f>
         <v>4.2758620689655178</v>
       </c>
@@ -612,14 +626,14 @@
       <c r="K5">
         <v>1.2300000000000001E-4</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="2">
         <f>K5/J5</f>
         <v>3.8437500000000004</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -629,7 +643,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">

--- a/Assignment_01/01_03/Results_1-3.xlsx
+++ b/Assignment_01/01_03/Results_1-3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixwaldschock/Documents/gits/Chalmers_TME286_IntelligentAgents/Assignment_01/01_03/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30665A21-137A-944F-911A-6910D0B8E8A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C641A2E-2953-D749-AA8B-BD2D846FA438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1240" windowWidth="27640" windowHeight="16560" xr2:uid="{326D5E39-B4D2-2948-9B49-F7ED17ACAA42}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Restaurant
 review</t>
@@ -96,6 +96,18 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Class 0</t>
+  </si>
+  <si>
+    <t>Class 1</t>
+  </si>
+  <si>
+    <t>horible</t>
+  </si>
+  <si>
+    <t>perfectly</t>
   </si>
 </sst>
 </file>
@@ -103,7 +115,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -139,7 +151,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93A77E5C-C1D6-074A-AAA2-CB4057E7A3CE}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -651,6 +663,58 @@
         <v>2160</v>
       </c>
     </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="C16">
+        <v>0.89700000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
